--- a/data/trans_media/IQ09_A-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ09_A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,19</t>
+          <t>0,49; 5,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,19</t>
+          <t>1,36; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,78</t>
+          <t>0,75; 4,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,67</t>
+          <t>0,58; 3,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,16</t>
+          <t>0,95; 4,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,07</t>
+          <t>1,62; 10,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,41</t>
+          <t>0,71; 4,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,62</t>
+          <t>1,78; 5,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,37</t>
+          <t>0,9; 3,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,32</t>
+          <t>1,75; 7,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,73</t>
+          <t>2,22; 8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,66</t>
+          <t>1,15; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,17</t>
+          <t>2,16; 7,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,83</t>
+          <t>2,46; 6,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,36</t>
+          <t>0,99; 3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,93</t>
+          <t>1,08; 4,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,58</t>
+          <t>0,85; 5,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,65</t>
+          <t>0,29; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,25</t>
+          <t>2,37; 6,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,49</t>
+          <t>1,41; 3,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,43</t>
+          <t>1,78; 5,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,02</t>
+          <t>1,9; 4,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,27 +1149,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,79</t>
+          <t>0,16; 3,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 11,45</t>
+          <t>0,95; 11,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,39</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,46</t>
+          <t>0,59; 5,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,89</t>
+          <t>0,39; 7,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,85</t>
+          <t>0,99; 7,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,18</t>
+          <t>0,4; 2,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,71</t>
+          <t>0,24; 2,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,28</t>
+          <t>1,37; 8,72</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,95</t>
+          <t>0,76; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,46</t>
+          <t>2,03; 8,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,3</t>
+          <t>0,2; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,68</t>
+          <t>1,47; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,65</t>
+          <t>0,15; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,19</t>
+          <t>0,48; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,03</t>
+          <t>1,46; 6,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,43</t>
+          <t>0,67; 3,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,14</t>
+          <t>1,57; 5,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,3</t>
+          <t>0,51; 3,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,33</t>
+          <t>2,13; 5,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,91</t>
+          <t>2,04; 4,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,1</t>
+          <t>1,7; 4,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,78</t>
+          <t>1,28; 3,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,48</t>
+          <t>2,75; 5,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,65</t>
+          <t>1,31; 4,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,12</t>
+          <t>1,32; 3,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,17</t>
+          <t>0,91; 3,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,07</t>
+          <t>1,98; 4,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,1</t>
+          <t>2,09; 4,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,26</t>
+          <t>1,74; 3,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,97</t>
+          <t>1,38; 3,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,99</t>
+          <t>2,75; 5,1</t>
         </is>
       </c>
     </row>
